--- a/TestData/Production/Web_POS/Billing/salesperson_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/salesperson_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_1</t>
@@ -608,7 +611,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -627,7 +630,9 @@
     <col min="23" max="23" width="14.4" customWidth="1"/>
     <col min="24" max="25" width="11.52"/>
     <col min="26" max="26" width="22.09" customWidth="1"/>
-    <col min="27" max="1025" width="11.52"/>
+    <col min="27" max="29" width="11.52"/>
+    <col min="30" max="30" width="23.14063" bestFit="1" customWidth="1"/>
+    <col min="31" max="1025" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
@@ -716,794 +721,827 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>1234</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>123456</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="8">
         <v>45384</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
+      <c r="AD2" s="5">
+        <v>7854120369</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>1234</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="8">
         <v>45384</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="1"/>
+      <c r="AD3" s="5">
+        <v>9856320147</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>1234</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>123456</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="8">
         <v>45384</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>8965320125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>1234</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1">
         <v>123456</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="8">
         <v>45384</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="6" ht="22.2" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>1234</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>123456</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" s="8">
         <v>45384</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>1234</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1">
         <v>123456</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" s="8">
         <v>45384</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>1234</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>123456</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8" s="8">
         <v>45384</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>1234</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1">
         <v>123456</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" s="8">
         <v>45384</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA9" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>1234</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
         <v>123456</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" s="8">
         <v>45384</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA10" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>1234</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
         <v>123456</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" s="8">
         <v>45384</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>9856320147</v>
       </c>
     </row>
     <row r="12">
@@ -1514,10 +1552,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1540,83 +1578,87 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>1234</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>123456</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8">
         <v>45384</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>7896320359</v>
       </c>
     </row>
     <row r="28">

--- a/TestData/Production/Web_POS/Billing/salesperson_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/salesperson_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,7 +214,7 @@
     <t>TC_8</t>
   </si>
   <si>
-    <t>Sarth jha</t>
+    <t>Samarth</t>
   </si>
   <si>
     <t>TC_9</t>
@@ -610,8 +610,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="N1">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
